--- a/test-builder.xlsx
+++ b/test-builder.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cansi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E15A487-2FDE-4F6D-80EE-F1C143323C35}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A10E9B8-B5B3-40C9-9928-41D8E47A773B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="975" yWindow="0" windowWidth="13890" windowHeight="12435" xr2:uid="{50EB2FBC-B6AE-4EAF-8F99-C6E3833FECC0}"/>
+    <workbookView xWindow="1950" yWindow="0" windowWidth="13890" windowHeight="12435" xr2:uid="{50EB2FBC-B6AE-4EAF-8F99-C6E3833FECC0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -607,7 +607,7 @@
   <dimension ref="A1:N48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N48" sqref="N2:N48"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -684,27 +684,27 @@
         <v>63</v>
       </c>
       <c r="F2" t="str">
-        <f>"false"</f>
+        <f t="shared" ref="F2:K2" si="0">"false"</f>
         <v>false</v>
       </c>
       <c r="G2" t="str">
-        <f>"false"</f>
+        <f t="shared" si="0"/>
         <v>false</v>
       </c>
       <c r="H2" t="str">
-        <f>"false"</f>
+        <f t="shared" si="0"/>
         <v>false</v>
       </c>
       <c r="I2" t="str">
-        <f>"false"</f>
+        <f t="shared" si="0"/>
         <v>false</v>
       </c>
       <c r="J2" t="str">
-        <f>"false"</f>
+        <f t="shared" si="0"/>
         <v>false</v>
       </c>
       <c r="K2" t="str">
-        <f>"false"</f>
+        <f t="shared" si="0"/>
         <v>false</v>
       </c>
       <c r="L2" t="str">
@@ -725,7 +725,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="str">
-        <f t="shared" ref="B3:B48" si="0">"write!(v, ""{}"", ""test""."&amp;A3&amp;"()).unwrap();"</f>
+        <f t="shared" ref="B3:B48" si="1">"write!(v, ""{}"", ""test""."&amp;A3&amp;"()).unwrap();"</f>
         <v>write!(v, "{}", "test".red()).unwrap();</v>
       </c>
       <c r="C3" t="s">
@@ -738,39 +738,39 @@
         <v>63</v>
       </c>
       <c r="F3" t="str">
-        <f t="shared" ref="F3:K43" si="1">"false"</f>
+        <f t="shared" ref="F3:K43" si="2">"false"</f>
         <v>false</v>
       </c>
       <c r="G3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="H3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="I3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="J3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="K3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="L3" t="str">
-        <f t="shared" ref="L3:L48" si="2">"{ text: test_string, fg_colour: Color::" &amp;C3&amp;", bg_colour: Color::"&amp;D3&amp;", intensity: Intensity::"&amp;E3&amp;", italic: " &amp;F3&amp;", underline: "&amp;G3&amp;", blink: "&amp;H3&amp;", reversed: "&amp;I3&amp;", hidden: "&amp;J3&amp;", strikethrough: "&amp;K3&amp;" }"</f>
+        <f t="shared" ref="L3:L48" si="3">"{ text: test_string, fg_colour: Color::" &amp;C3&amp;", bg_colour: Color::"&amp;D3&amp;", intensity: Intensity::"&amp;E3&amp;", italic: " &amp;F3&amp;", underline: "&amp;G3&amp;", blink: "&amp;H3&amp;", reversed: "&amp;I3&amp;", hidden: "&amp;J3&amp;", strikethrough: "&amp;K3&amp;" }"</f>
         <v>{ text: test_string, fg_colour: Color::Red, bg_colour: Color::Black, intensity: Intensity::Normal, italic: false, underline: false, blink: false, reversed: false, hidden: false, strikethrough: false }</v>
       </c>
       <c r="M3" t="str">
-        <f t="shared" ref="M3:M48" si="3">"assert_eq!(categorise_text(&amp;v)[0], CategorisedSlice " &amp;L3&amp;", """&amp;A3&amp;"()"");"</f>
+        <f t="shared" ref="M3:M48" si="4">"assert_eq!(categorise_text(&amp;v)[0], CategorisedSlice " &amp;L3&amp;", """&amp;A3&amp;"()"");"</f>
         <v>assert_eq!(categorise_text(&amp;v)[0], CategorisedSlice { text: test_string, fg_colour: Color::Red, bg_colour: Color::Black, intensity: Intensity::Normal, italic: false, underline: false, blink: false, reversed: false, hidden: false, strikethrough: false }, "red()");</v>
       </c>
       <c r="N3" t="str">
-        <f t="shared" ref="N3:N48" si="4">B3&amp;" print_bytes(&amp;v); "&amp;M3&amp;" v.clear();"</f>
+        <f t="shared" ref="N3:N48" si="5">B3&amp;" print_bytes(&amp;v); "&amp;M3&amp;" v.clear();"</f>
         <v>write!(v, "{}", "test".red()).unwrap(); print_bytes(&amp;v); assert_eq!(categorise_text(&amp;v)[0], CategorisedSlice { text: test_string, fg_colour: Color::Red, bg_colour: Color::Black, intensity: Intensity::Normal, italic: false, underline: false, blink: false, reversed: false, hidden: false, strikethrough: false }, "red()"); v.clear();</v>
       </c>
     </row>
@@ -779,7 +779,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>write!(v, "{}", "test".green()).unwrap();</v>
       </c>
       <c r="C4" t="s">
@@ -792,39 +792,39 @@
         <v>63</v>
       </c>
       <c r="F4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="G4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="H4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="I4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="J4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="K4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="L4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>{ text: test_string, fg_colour: Color::Green, bg_colour: Color::Black, intensity: Intensity::Normal, italic: false, underline: false, blink: false, reversed: false, hidden: false, strikethrough: false }</v>
       </c>
       <c r="M4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>assert_eq!(categorise_text(&amp;v)[0], CategorisedSlice { text: test_string, fg_colour: Color::Green, bg_colour: Color::Black, intensity: Intensity::Normal, italic: false, underline: false, blink: false, reversed: false, hidden: false, strikethrough: false }, "green()");</v>
       </c>
       <c r="N4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>write!(v, "{}", "test".green()).unwrap(); print_bytes(&amp;v); assert_eq!(categorise_text(&amp;v)[0], CategorisedSlice { text: test_string, fg_colour: Color::Green, bg_colour: Color::Black, intensity: Intensity::Normal, italic: false, underline: false, blink: false, reversed: false, hidden: false, strikethrough: false }, "green()"); v.clear();</v>
       </c>
     </row>
@@ -833,7 +833,7 @@
         <v>13</v>
       </c>
       <c r="B5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>write!(v, "{}", "test".yellow()).unwrap();</v>
       </c>
       <c r="C5" t="s">
@@ -846,39 +846,39 @@
         <v>63</v>
       </c>
       <c r="F5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="G5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="H5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="I5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="J5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="K5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="L5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>{ text: test_string, fg_colour: Color::Yellow, bg_colour: Color::Black, intensity: Intensity::Normal, italic: false, underline: false, blink: false, reversed: false, hidden: false, strikethrough: false }</v>
       </c>
       <c r="M5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>assert_eq!(categorise_text(&amp;v)[0], CategorisedSlice { text: test_string, fg_colour: Color::Yellow, bg_colour: Color::Black, intensity: Intensity::Normal, italic: false, underline: false, blink: false, reversed: false, hidden: false, strikethrough: false }, "yellow()");</v>
       </c>
       <c r="N5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>write!(v, "{}", "test".yellow()).unwrap(); print_bytes(&amp;v); assert_eq!(categorise_text(&amp;v)[0], CategorisedSlice { text: test_string, fg_colour: Color::Yellow, bg_colour: Color::Black, intensity: Intensity::Normal, italic: false, underline: false, blink: false, reversed: false, hidden: false, strikethrough: false }, "yellow()"); v.clear();</v>
       </c>
     </row>
@@ -887,7 +887,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>write!(v, "{}", "test".blue()).unwrap();</v>
       </c>
       <c r="C6" t="s">
@@ -900,39 +900,39 @@
         <v>63</v>
       </c>
       <c r="F6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="G6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="H6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="I6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="J6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="K6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="L6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>{ text: test_string, fg_colour: Color::Blue, bg_colour: Color::Black, intensity: Intensity::Normal, italic: false, underline: false, blink: false, reversed: false, hidden: false, strikethrough: false }</v>
       </c>
       <c r="M6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>assert_eq!(categorise_text(&amp;v)[0], CategorisedSlice { text: test_string, fg_colour: Color::Blue, bg_colour: Color::Black, intensity: Intensity::Normal, italic: false, underline: false, blink: false, reversed: false, hidden: false, strikethrough: false }, "blue()");</v>
       </c>
       <c r="N6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>write!(v, "{}", "test".blue()).unwrap(); print_bytes(&amp;v); assert_eq!(categorise_text(&amp;v)[0], CategorisedSlice { text: test_string, fg_colour: Color::Blue, bg_colour: Color::Black, intensity: Intensity::Normal, italic: false, underline: false, blink: false, reversed: false, hidden: false, strikethrough: false }, "blue()"); v.clear();</v>
       </c>
     </row>
@@ -941,7 +941,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>write!(v, "{}", "test".magenta()).unwrap();</v>
       </c>
       <c r="C7" t="s">
@@ -954,39 +954,39 @@
         <v>63</v>
       </c>
       <c r="F7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="G7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="H7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="I7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="J7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="K7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="L7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>{ text: test_string, fg_colour: Color::Magenta, bg_colour: Color::Black, intensity: Intensity::Normal, italic: false, underline: false, blink: false, reversed: false, hidden: false, strikethrough: false }</v>
       </c>
       <c r="M7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>assert_eq!(categorise_text(&amp;v)[0], CategorisedSlice { text: test_string, fg_colour: Color::Magenta, bg_colour: Color::Black, intensity: Intensity::Normal, italic: false, underline: false, blink: false, reversed: false, hidden: false, strikethrough: false }, "magenta()");</v>
       </c>
       <c r="N7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>write!(v, "{}", "test".magenta()).unwrap(); print_bytes(&amp;v); assert_eq!(categorise_text(&amp;v)[0], CategorisedSlice { text: test_string, fg_colour: Color::Magenta, bg_colour: Color::Black, intensity: Intensity::Normal, italic: false, underline: false, blink: false, reversed: false, hidden: false, strikethrough: false }, "magenta()"); v.clear();</v>
       </c>
     </row>
@@ -995,7 +995,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>write!(v, "{}", "test".purple()).unwrap();</v>
       </c>
       <c r="C8" t="s">
@@ -1008,39 +1008,39 @@
         <v>63</v>
       </c>
       <c r="F8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="G8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="H8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="I8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="J8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="K8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="L8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>{ text: test_string, fg_colour: Color::Magenta, bg_colour: Color::Black, intensity: Intensity::Normal, italic: false, underline: false, blink: false, reversed: false, hidden: false, strikethrough: false }</v>
       </c>
       <c r="M8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>assert_eq!(categorise_text(&amp;v)[0], CategorisedSlice { text: test_string, fg_colour: Color::Magenta, bg_colour: Color::Black, intensity: Intensity::Normal, italic: false, underline: false, blink: false, reversed: false, hidden: false, strikethrough: false }, "purple()");</v>
       </c>
       <c r="N8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>write!(v, "{}", "test".purple()).unwrap(); print_bytes(&amp;v); assert_eq!(categorise_text(&amp;v)[0], CategorisedSlice { text: test_string, fg_colour: Color::Magenta, bg_colour: Color::Black, intensity: Intensity::Normal, italic: false, underline: false, blink: false, reversed: false, hidden: false, strikethrough: false }, "purple()"); v.clear();</v>
       </c>
     </row>
@@ -1049,7 +1049,7 @@
         <v>17</v>
       </c>
       <c r="B9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>write!(v, "{}", "test".cyan()).unwrap();</v>
       </c>
       <c r="C9" t="s">
@@ -1062,39 +1062,39 @@
         <v>63</v>
       </c>
       <c r="F9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="G9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="H9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="I9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="J9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="K9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="L9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>{ text: test_string, fg_colour: Color::Cyan, bg_colour: Color::Black, intensity: Intensity::Normal, italic: false, underline: false, blink: false, reversed: false, hidden: false, strikethrough: false }</v>
       </c>
       <c r="M9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>assert_eq!(categorise_text(&amp;v)[0], CategorisedSlice { text: test_string, fg_colour: Color::Cyan, bg_colour: Color::Black, intensity: Intensity::Normal, italic: false, underline: false, blink: false, reversed: false, hidden: false, strikethrough: false }, "cyan()");</v>
       </c>
       <c r="N9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>write!(v, "{}", "test".cyan()).unwrap(); print_bytes(&amp;v); assert_eq!(categorise_text(&amp;v)[0], CategorisedSlice { text: test_string, fg_colour: Color::Cyan, bg_colour: Color::Black, intensity: Intensity::Normal, italic: false, underline: false, blink: false, reversed: false, hidden: false, strikethrough: false }, "cyan()"); v.clear();</v>
       </c>
     </row>
@@ -1103,7 +1103,7 @@
         <v>18</v>
       </c>
       <c r="B10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>write!(v, "{}", "test".white()).unwrap();</v>
       </c>
       <c r="C10" t="s">
@@ -1116,39 +1116,39 @@
         <v>63</v>
       </c>
       <c r="F10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="G10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="H10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="I10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="J10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="K10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="L10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>{ text: test_string, fg_colour: Color::White, bg_colour: Color::Black, intensity: Intensity::Normal, italic: false, underline: false, blink: false, reversed: false, hidden: false, strikethrough: false }</v>
       </c>
       <c r="M10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>assert_eq!(categorise_text(&amp;v)[0], CategorisedSlice { text: test_string, fg_colour: Color::White, bg_colour: Color::Black, intensity: Intensity::Normal, italic: false, underline: false, blink: false, reversed: false, hidden: false, strikethrough: false }, "white()");</v>
       </c>
       <c r="N10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>write!(v, "{}", "test".white()).unwrap(); print_bytes(&amp;v); assert_eq!(categorise_text(&amp;v)[0], CategorisedSlice { text: test_string, fg_colour: Color::White, bg_colour: Color::Black, intensity: Intensity::Normal, italic: false, underline: false, blink: false, reversed: false, hidden: false, strikethrough: false }, "white()"); v.clear();</v>
       </c>
     </row>
@@ -1157,7 +1157,7 @@
         <v>19</v>
       </c>
       <c r="B11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>write!(v, "{}", "test".bright_black()).unwrap();</v>
       </c>
       <c r="C11" t="s">
@@ -1170,39 +1170,39 @@
         <v>63</v>
       </c>
       <c r="F11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="G11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="H11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="I11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="J11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="K11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="L11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>{ text: test_string, fg_colour: Color::BrightBlack, bg_colour: Color::Black, intensity: Intensity::Normal, italic: false, underline: false, blink: false, reversed: false, hidden: false, strikethrough: false }</v>
       </c>
       <c r="M11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>assert_eq!(categorise_text(&amp;v)[0], CategorisedSlice { text: test_string, fg_colour: Color::BrightBlack, bg_colour: Color::Black, intensity: Intensity::Normal, italic: false, underline: false, blink: false, reversed: false, hidden: false, strikethrough: false }, "bright_black()");</v>
       </c>
       <c r="N11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>write!(v, "{}", "test".bright_black()).unwrap(); print_bytes(&amp;v); assert_eq!(categorise_text(&amp;v)[0], CategorisedSlice { text: test_string, fg_colour: Color::BrightBlack, bg_colour: Color::Black, intensity: Intensity::Normal, italic: false, underline: false, blink: false, reversed: false, hidden: false, strikethrough: false }, "bright_black()"); v.clear();</v>
       </c>
     </row>
@@ -1211,7 +1211,7 @@
         <v>20</v>
       </c>
       <c r="B12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>write!(v, "{}", "test".bright_red()).unwrap();</v>
       </c>
       <c r="C12" t="s">
@@ -1224,39 +1224,39 @@
         <v>63</v>
       </c>
       <c r="F12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="G12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="H12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="I12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="J12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="K12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="L12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>{ text: test_string, fg_colour: Color::BrightRed, bg_colour: Color::Black, intensity: Intensity::Normal, italic: false, underline: false, blink: false, reversed: false, hidden: false, strikethrough: false }</v>
       </c>
       <c r="M12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>assert_eq!(categorise_text(&amp;v)[0], CategorisedSlice { text: test_string, fg_colour: Color::BrightRed, bg_colour: Color::Black, intensity: Intensity::Normal, italic: false, underline: false, blink: false, reversed: false, hidden: false, strikethrough: false }, "bright_red()");</v>
       </c>
       <c r="N12" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>write!(v, "{}", "test".bright_red()).unwrap(); print_bytes(&amp;v); assert_eq!(categorise_text(&amp;v)[0], CategorisedSlice { text: test_string, fg_colour: Color::BrightRed, bg_colour: Color::Black, intensity: Intensity::Normal, italic: false, underline: false, blink: false, reversed: false, hidden: false, strikethrough: false }, "bright_red()"); v.clear();</v>
       </c>
     </row>
@@ -1265,7 +1265,7 @@
         <v>21</v>
       </c>
       <c r="B13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>write!(v, "{}", "test".bright_green()).unwrap();</v>
       </c>
       <c r="C13" t="s">
@@ -1278,39 +1278,39 @@
         <v>63</v>
       </c>
       <c r="F13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="G13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="H13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="I13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="J13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="K13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="L13" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>{ text: test_string, fg_colour: Color::BrightGreen, bg_colour: Color::Black, intensity: Intensity::Normal, italic: false, underline: false, blink: false, reversed: false, hidden: false, strikethrough: false }</v>
       </c>
       <c r="M13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>assert_eq!(categorise_text(&amp;v)[0], CategorisedSlice { text: test_string, fg_colour: Color::BrightGreen, bg_colour: Color::Black, intensity: Intensity::Normal, italic: false, underline: false, blink: false, reversed: false, hidden: false, strikethrough: false }, "bright_green()");</v>
       </c>
       <c r="N13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>write!(v, "{}", "test".bright_green()).unwrap(); print_bytes(&amp;v); assert_eq!(categorise_text(&amp;v)[0], CategorisedSlice { text: test_string, fg_colour: Color::BrightGreen, bg_colour: Color::Black, intensity: Intensity::Normal, italic: false, underline: false, blink: false, reversed: false, hidden: false, strikethrough: false }, "bright_green()"); v.clear();</v>
       </c>
     </row>
@@ -1319,7 +1319,7 @@
         <v>22</v>
       </c>
       <c r="B14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>write!(v, "{}", "test".bright_yellow()).unwrap();</v>
       </c>
       <c r="C14" t="s">
@@ -1332,39 +1332,39 @@
         <v>63</v>
       </c>
       <c r="F14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="G14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="H14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="I14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="J14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="K14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="L14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>{ text: test_string, fg_colour: Color::BrightYellow, bg_colour: Color::Black, intensity: Intensity::Normal, italic: false, underline: false, blink: false, reversed: false, hidden: false, strikethrough: false }</v>
       </c>
       <c r="M14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>assert_eq!(categorise_text(&amp;v)[0], CategorisedSlice { text: test_string, fg_colour: Color::BrightYellow, bg_colour: Color::Black, intensity: Intensity::Normal, italic: false, underline: false, blink: false, reversed: false, hidden: false, strikethrough: false }, "bright_yellow()");</v>
       </c>
       <c r="N14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>write!(v, "{}", "test".bright_yellow()).unwrap(); print_bytes(&amp;v); assert_eq!(categorise_text(&amp;v)[0], CategorisedSlice { text: test_string, fg_colour: Color::BrightYellow, bg_colour: Color::Black, intensity: Intensity::Normal, italic: false, underline: false, blink: false, reversed: false, hidden: false, strikethrough: false }, "bright_yellow()"); v.clear();</v>
       </c>
     </row>
@@ -1373,7 +1373,7 @@
         <v>23</v>
       </c>
       <c r="B15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>write!(v, "{}", "test".bright_blue()).unwrap();</v>
       </c>
       <c r="C15" t="s">
@@ -1386,39 +1386,39 @@
         <v>63</v>
       </c>
       <c r="F15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="G15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="H15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="I15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="J15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="K15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="L15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>{ text: test_string, fg_colour: Color::BrightBlue, bg_colour: Color::Black, intensity: Intensity::Normal, italic: false, underline: false, blink: false, reversed: false, hidden: false, strikethrough: false }</v>
       </c>
       <c r="M15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>assert_eq!(categorise_text(&amp;v)[0], CategorisedSlice { text: test_string, fg_colour: Color::BrightBlue, bg_colour: Color::Black, intensity: Intensity::Normal, italic: false, underline: false, blink: false, reversed: false, hidden: false, strikethrough: false }, "bright_blue()");</v>
       </c>
       <c r="N15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>write!(v, "{}", "test".bright_blue()).unwrap(); print_bytes(&amp;v); assert_eq!(categorise_text(&amp;v)[0], CategorisedSlice { text: test_string, fg_colour: Color::BrightBlue, bg_colour: Color::Black, intensity: Intensity::Normal, italic: false, underline: false, blink: false, reversed: false, hidden: false, strikethrough: false }, "bright_blue()"); v.clear();</v>
       </c>
     </row>
@@ -1427,7 +1427,7 @@
         <v>24</v>
       </c>
       <c r="B16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>write!(v, "{}", "test".bright_magenta()).unwrap();</v>
       </c>
       <c r="C16" t="s">
@@ -1440,39 +1440,39 @@
         <v>63</v>
       </c>
       <c r="F16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="G16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="H16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="I16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="J16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="K16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="L16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>{ text: test_string, fg_colour: Color::BrightMagenta, bg_colour: Color::Black, intensity: Intensity::Normal, italic: false, underline: false, blink: false, reversed: false, hidden: false, strikethrough: false }</v>
       </c>
       <c r="M16" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>assert_eq!(categorise_text(&amp;v)[0], CategorisedSlice { text: test_string, fg_colour: Color::BrightMagenta, bg_colour: Color::Black, intensity: Intensity::Normal, italic: false, underline: false, blink: false, reversed: false, hidden: false, strikethrough: false }, "bright_magenta()");</v>
       </c>
       <c r="N16" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>write!(v, "{}", "test".bright_magenta()).unwrap(); print_bytes(&amp;v); assert_eq!(categorise_text(&amp;v)[0], CategorisedSlice { text: test_string, fg_colour: Color::BrightMagenta, bg_colour: Color::Black, intensity: Intensity::Normal, italic: false, underline: false, blink: false, reversed: false, hidden: false, strikethrough: false }, "bright_magenta()"); v.clear();</v>
       </c>
     </row>
@@ -1481,7 +1481,7 @@
         <v>25</v>
       </c>
       <c r="B17" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>write!(v, "{}", "test".bright_purple()).unwrap();</v>
       </c>
       <c r="C17" t="s">
@@ -1494,39 +1494,39 @@
         <v>63</v>
       </c>
       <c r="F17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="G17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="H17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="I17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="J17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="K17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="L17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>{ text: test_string, fg_colour: Color::BrightMagenta, bg_colour: Color::Black, intensity: Intensity::Normal, italic: false, underline: false, blink: false, reversed: false, hidden: false, strikethrough: false }</v>
       </c>
       <c r="M17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>assert_eq!(categorise_text(&amp;v)[0], CategorisedSlice { text: test_string, fg_colour: Color::BrightMagenta, bg_colour: Color::Black, intensity: Intensity::Normal, italic: false, underline: false, blink: false, reversed: false, hidden: false, strikethrough: false }, "bright_purple()");</v>
       </c>
       <c r="N17" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>write!(v, "{}", "test".bright_purple()).unwrap(); print_bytes(&amp;v); assert_eq!(categorise_text(&amp;v)[0], CategorisedSlice { text: test_string, fg_colour: Color::BrightMagenta, bg_colour: Color::Black, intensity: Intensity::Normal, italic: false, underline: false, blink: false, reversed: false, hidden: false, strikethrough: false }, "bright_purple()"); v.clear();</v>
       </c>
     </row>
@@ -1535,7 +1535,7 @@
         <v>26</v>
       </c>
       <c r="B18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>write!(v, "{}", "test".bright_cyan()).unwrap();</v>
       </c>
       <c r="C18" t="s">
@@ -1548,39 +1548,39 @@
         <v>63</v>
       </c>
       <c r="F18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="G18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="H18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="I18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="J18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="K18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="L18" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>{ text: test_string, fg_colour: Color::BrightCyan, bg_colour: Color::Black, intensity: Intensity::Normal, italic: false, underline: false, blink: false, reversed: false, hidden: false, strikethrough: false }</v>
       </c>
       <c r="M18" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>assert_eq!(categorise_text(&amp;v)[0], CategorisedSlice { text: test_string, fg_colour: Color::BrightCyan, bg_colour: Color::Black, intensity: Intensity::Normal, italic: false, underline: false, blink: false, reversed: false, hidden: false, strikethrough: false }, "bright_cyan()");</v>
       </c>
       <c r="N18" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>write!(v, "{}", "test".bright_cyan()).unwrap(); print_bytes(&amp;v); assert_eq!(categorise_text(&amp;v)[0], CategorisedSlice { text: test_string, fg_colour: Color::BrightCyan, bg_colour: Color::Black, intensity: Intensity::Normal, italic: false, underline: false, blink: false, reversed: false, hidden: false, strikethrough: false }, "bright_cyan()"); v.clear();</v>
       </c>
     </row>
@@ -1589,7 +1589,7 @@
         <v>27</v>
       </c>
       <c r="B19" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>write!(v, "{}", "test".bright_white()).unwrap();</v>
       </c>
       <c r="C19" t="s">
@@ -1602,39 +1602,39 @@
         <v>63</v>
       </c>
       <c r="F19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="G19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="H19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="I19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="J19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="K19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="L19" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>{ text: test_string, fg_colour: Color::BrightWhite, bg_colour: Color::Black, intensity: Intensity::Normal, italic: false, underline: false, blink: false, reversed: false, hidden: false, strikethrough: false }</v>
       </c>
       <c r="M19" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>assert_eq!(categorise_text(&amp;v)[0], CategorisedSlice { text: test_string, fg_colour: Color::BrightWhite, bg_colour: Color::Black, intensity: Intensity::Normal, italic: false, underline: false, blink: false, reversed: false, hidden: false, strikethrough: false }, "bright_white()");</v>
       </c>
       <c r="N19" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>write!(v, "{}", "test".bright_white()).unwrap(); print_bytes(&amp;v); assert_eq!(categorise_text(&amp;v)[0], CategorisedSlice { text: test_string, fg_colour: Color::BrightWhite, bg_colour: Color::Black, intensity: Intensity::Normal, italic: false, underline: false, blink: false, reversed: false, hidden: false, strikethrough: false }, "bright_white()"); v.clear();</v>
       </c>
     </row>
@@ -1643,7 +1643,7 @@
         <v>28</v>
       </c>
       <c r="B20" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>write!(v, "{}", "test".on_black()).unwrap();</v>
       </c>
       <c r="C20" t="s">
@@ -1656,39 +1656,39 @@
         <v>63</v>
       </c>
       <c r="F20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="G20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="H20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="I20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="J20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="K20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="L20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>{ text: test_string, fg_colour: Color::White, bg_colour: Color::Black, intensity: Intensity::Normal, italic: false, underline: false, blink: false, reversed: false, hidden: false, strikethrough: false }</v>
       </c>
       <c r="M20" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>assert_eq!(categorise_text(&amp;v)[0], CategorisedSlice { text: test_string, fg_colour: Color::White, bg_colour: Color::Black, intensity: Intensity::Normal, italic: false, underline: false, blink: false, reversed: false, hidden: false, strikethrough: false }, "on_black()");</v>
       </c>
       <c r="N20" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>write!(v, "{}", "test".on_black()).unwrap(); print_bytes(&amp;v); assert_eq!(categorise_text(&amp;v)[0], CategorisedSlice { text: test_string, fg_colour: Color::White, bg_colour: Color::Black, intensity: Intensity::Normal, italic: false, underline: false, blink: false, reversed: false, hidden: false, strikethrough: false }, "on_black()"); v.clear();</v>
       </c>
     </row>
@@ -1697,7 +1697,7 @@
         <v>29</v>
       </c>
       <c r="B21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>write!(v, "{}", "test".on_red()).unwrap();</v>
       </c>
       <c r="C21" t="s">
@@ -1710,39 +1710,39 @@
         <v>63</v>
       </c>
       <c r="F21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="G21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="H21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="I21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="J21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="K21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="L21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>{ text: test_string, fg_colour: Color::White, bg_colour: Color::Red, intensity: Intensity::Normal, italic: false, underline: false, blink: false, reversed: false, hidden: false, strikethrough: false }</v>
       </c>
       <c r="M21" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>assert_eq!(categorise_text(&amp;v)[0], CategorisedSlice { text: test_string, fg_colour: Color::White, bg_colour: Color::Red, intensity: Intensity::Normal, italic: false, underline: false, blink: false, reversed: false, hidden: false, strikethrough: false }, "on_red()");</v>
       </c>
       <c r="N21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>write!(v, "{}", "test".on_red()).unwrap(); print_bytes(&amp;v); assert_eq!(categorise_text(&amp;v)[0], CategorisedSlice { text: test_string, fg_colour: Color::White, bg_colour: Color::Red, intensity: Intensity::Normal, italic: false, underline: false, blink: false, reversed: false, hidden: false, strikethrough: false }, "on_red()"); v.clear();</v>
       </c>
     </row>
@@ -1751,7 +1751,7 @@
         <v>30</v>
       </c>
       <c r="B22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>write!(v, "{}", "test".on_green()).unwrap();</v>
       </c>
       <c r="C22" t="s">
@@ -1764,39 +1764,39 @@
         <v>63</v>
       </c>
       <c r="F22" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="G22" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="H22" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="I22" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="J22" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="K22" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="L22" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>{ text: test_string, fg_colour: Color::White, bg_colour: Color::Green, intensity: Intensity::Normal, italic: false, underline: false, blink: false, reversed: false, hidden: false, strikethrough: false }</v>
       </c>
       <c r="M22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>assert_eq!(categorise_text(&amp;v)[0], CategorisedSlice { text: test_string, fg_colour: Color::White, bg_colour: Color::Green, intensity: Intensity::Normal, italic: false, underline: false, blink: false, reversed: false, hidden: false, strikethrough: false }, "on_green()");</v>
       </c>
       <c r="N22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>write!(v, "{}", "test".on_green()).unwrap(); print_bytes(&amp;v); assert_eq!(categorise_text(&amp;v)[0], CategorisedSlice { text: test_string, fg_colour: Color::White, bg_colour: Color::Green, intensity: Intensity::Normal, italic: false, underline: false, blink: false, reversed: false, hidden: false, strikethrough: false }, "on_green()"); v.clear();</v>
       </c>
     </row>
@@ -1805,7 +1805,7 @@
         <v>31</v>
       </c>
       <c r="B23" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>write!(v, "{}", "test".on_yellow()).unwrap();</v>
       </c>
       <c r="C23" t="s">
@@ -1818,39 +1818,39 @@
         <v>63</v>
       </c>
       <c r="F23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="G23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="H23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="I23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="J23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="K23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="L23" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>{ text: test_string, fg_colour: Color::White, bg_colour: Color::Yellow, intensity: Intensity::Normal, italic: false, underline: false, blink: false, reversed: false, hidden: false, strikethrough: false }</v>
       </c>
       <c r="M23" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>assert_eq!(categorise_text(&amp;v)[0], CategorisedSlice { text: test_string, fg_colour: Color::White, bg_colour: Color::Yellow, intensity: Intensity::Normal, italic: false, underline: false, blink: false, reversed: false, hidden: false, strikethrough: false }, "on_yellow()");</v>
       </c>
       <c r="N23" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>write!(v, "{}", "test".on_yellow()).unwrap(); print_bytes(&amp;v); assert_eq!(categorise_text(&amp;v)[0], CategorisedSlice { text: test_string, fg_colour: Color::White, bg_colour: Color::Yellow, intensity: Intensity::Normal, italic: false, underline: false, blink: false, reversed: false, hidden: false, strikethrough: false }, "on_yellow()"); v.clear();</v>
       </c>
     </row>
@@ -1859,7 +1859,7 @@
         <v>32</v>
       </c>
       <c r="B24" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>write!(v, "{}", "test".on_blue()).unwrap();</v>
       </c>
       <c r="C24" t="s">
@@ -1872,39 +1872,39 @@
         <v>63</v>
       </c>
       <c r="F24" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="G24" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="H24" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="I24" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="J24" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="K24" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="L24" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>{ text: test_string, fg_colour: Color::White, bg_colour: Color::Blue, intensity: Intensity::Normal, italic: false, underline: false, blink: false, reversed: false, hidden: false, strikethrough: false }</v>
       </c>
       <c r="M24" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>assert_eq!(categorise_text(&amp;v)[0], CategorisedSlice { text: test_string, fg_colour: Color::White, bg_colour: Color::Blue, intensity: Intensity::Normal, italic: false, underline: false, blink: false, reversed: false, hidden: false, strikethrough: false }, "on_blue()");</v>
       </c>
       <c r="N24" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>write!(v, "{}", "test".on_blue()).unwrap(); print_bytes(&amp;v); assert_eq!(categorise_text(&amp;v)[0], CategorisedSlice { text: test_string, fg_colour: Color::White, bg_colour: Color::Blue, intensity: Intensity::Normal, italic: false, underline: false, blink: false, reversed: false, hidden: false, strikethrough: false }, "on_blue()"); v.clear();</v>
       </c>
     </row>
@@ -1913,7 +1913,7 @@
         <v>33</v>
       </c>
       <c r="B25" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>write!(v, "{}", "test".on_magenta()).unwrap();</v>
       </c>
       <c r="C25" t="s">
@@ -1926,39 +1926,39 @@
         <v>63</v>
       </c>
       <c r="F25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="G25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="H25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="I25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="J25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="K25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="L25" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>{ text: test_string, fg_colour: Color::White, bg_colour: Color::Magenta, intensity: Intensity::Normal, italic: false, underline: false, blink: false, reversed: false, hidden: false, strikethrough: false }</v>
       </c>
       <c r="M25" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>assert_eq!(categorise_text(&amp;v)[0], CategorisedSlice { text: test_string, fg_colour: Color::White, bg_colour: Color::Magenta, intensity: Intensity::Normal, italic: false, underline: false, blink: false, reversed: false, hidden: false, strikethrough: false }, "on_magenta()");</v>
       </c>
       <c r="N25" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>write!(v, "{}", "test".on_magenta()).unwrap(); print_bytes(&amp;v); assert_eq!(categorise_text(&amp;v)[0], CategorisedSlice { text: test_string, fg_colour: Color::White, bg_colour: Color::Magenta, intensity: Intensity::Normal, italic: false, underline: false, blink: false, reversed: false, hidden: false, strikethrough: false }, "on_magenta()"); v.clear();</v>
       </c>
     </row>
@@ -1967,7 +1967,7 @@
         <v>34</v>
       </c>
       <c r="B26" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>write!(v, "{}", "test".on_purple()).unwrap();</v>
       </c>
       <c r="C26" t="s">
@@ -1980,39 +1980,39 @@
         <v>63</v>
       </c>
       <c r="F26" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="G26" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="H26" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="I26" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="J26" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="K26" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="L26" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>{ text: test_string, fg_colour: Color::White, bg_colour: Color::Magenta, intensity: Intensity::Normal, italic: false, underline: false, blink: false, reversed: false, hidden: false, strikethrough: false }</v>
       </c>
       <c r="M26" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>assert_eq!(categorise_text(&amp;v)[0], CategorisedSlice { text: test_string, fg_colour: Color::White, bg_colour: Color::Magenta, intensity: Intensity::Normal, italic: false, underline: false, blink: false, reversed: false, hidden: false, strikethrough: false }, "on_purple()");</v>
       </c>
       <c r="N26" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>write!(v, "{}", "test".on_purple()).unwrap(); print_bytes(&amp;v); assert_eq!(categorise_text(&amp;v)[0], CategorisedSlice { text: test_string, fg_colour: Color::White, bg_colour: Color::Magenta, intensity: Intensity::Normal, italic: false, underline: false, blink: false, reversed: false, hidden: false, strikethrough: false }, "on_purple()"); v.clear();</v>
       </c>
     </row>
@@ -2021,7 +2021,7 @@
         <v>35</v>
       </c>
       <c r="B27" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>write!(v, "{}", "test".on_cyan()).unwrap();</v>
       </c>
       <c r="C27" t="s">
@@ -2034,39 +2034,39 @@
         <v>63</v>
       </c>
       <c r="F27" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="G27" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="H27" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="I27" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="J27" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="K27" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="L27" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>{ text: test_string, fg_colour: Color::White, bg_colour: Color::Cyan, intensity: Intensity::Normal, italic: false, underline: false, blink: false, reversed: false, hidden: false, strikethrough: false }</v>
       </c>
       <c r="M27" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>assert_eq!(categorise_text(&amp;v)[0], CategorisedSlice { text: test_string, fg_colour: Color::White, bg_colour: Color::Cyan, intensity: Intensity::Normal, italic: false, underline: false, blink: false, reversed: false, hidden: false, strikethrough: false }, "on_cyan()");</v>
       </c>
       <c r="N27" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>write!(v, "{}", "test".on_cyan()).unwrap(); print_bytes(&amp;v); assert_eq!(categorise_text(&amp;v)[0], CategorisedSlice { text: test_string, fg_colour: Color::White, bg_colour: Color::Cyan, intensity: Intensity::Normal, italic: false, underline: false, blink: false, reversed: false, hidden: false, strikethrough: false }, "on_cyan()"); v.clear();</v>
       </c>
     </row>
@@ -2075,7 +2075,7 @@
         <v>36</v>
       </c>
       <c r="B28" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>write!(v, "{}", "test".on_white()).unwrap();</v>
       </c>
       <c r="C28" t="s">
@@ -2088,39 +2088,39 @@
         <v>63</v>
       </c>
       <c r="F28" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="G28" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="H28" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="I28" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="J28" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="K28" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="L28" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>{ text: test_string, fg_colour: Color::White, bg_colour: Color::White, intensity: Intensity::Normal, italic: false, underline: false, blink: false, reversed: false, hidden: false, strikethrough: false }</v>
       </c>
       <c r="M28" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>assert_eq!(categorise_text(&amp;v)[0], CategorisedSlice { text: test_string, fg_colour: Color::White, bg_colour: Color::White, intensity: Intensity::Normal, italic: false, underline: false, blink: false, reversed: false, hidden: false, strikethrough: false }, "on_white()");</v>
       </c>
       <c r="N28" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>write!(v, "{}", "test".on_white()).unwrap(); print_bytes(&amp;v); assert_eq!(categorise_text(&amp;v)[0], CategorisedSlice { text: test_string, fg_colour: Color::White, bg_colour: Color::White, intensity: Intensity::Normal, italic: false, underline: false, blink: false, reversed: false, hidden: false, strikethrough: false }, "on_white()"); v.clear();</v>
       </c>
     </row>
@@ -2129,7 +2129,7 @@
         <v>37</v>
       </c>
       <c r="B29" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>write!(v, "{}", "test".on_bright_black()).unwrap();</v>
       </c>
       <c r="C29" t="s">
@@ -2142,39 +2142,39 @@
         <v>63</v>
       </c>
       <c r="F29" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="G29" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="H29" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="I29" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="J29" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="K29" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="L29" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>{ text: test_string, fg_colour: Color::White, bg_colour: Color::BrightBlack, intensity: Intensity::Normal, italic: false, underline: false, blink: false, reversed: false, hidden: false, strikethrough: false }</v>
       </c>
       <c r="M29" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>assert_eq!(categorise_text(&amp;v)[0], CategorisedSlice { text: test_string, fg_colour: Color::White, bg_colour: Color::BrightBlack, intensity: Intensity::Normal, italic: false, underline: false, blink: false, reversed: false, hidden: false, strikethrough: false }, "on_bright_black()");</v>
       </c>
       <c r="N29" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>write!(v, "{}", "test".on_bright_black()).unwrap(); print_bytes(&amp;v); assert_eq!(categorise_text(&amp;v)[0], CategorisedSlice { text: test_string, fg_colour: Color::White, bg_colour: Color::BrightBlack, intensity: Intensity::Normal, italic: false, underline: false, blink: false, reversed: false, hidden: false, strikethrough: false }, "on_bright_black()"); v.clear();</v>
       </c>
     </row>
@@ -2183,7 +2183,7 @@
         <v>38</v>
       </c>
       <c r="B30" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>write!(v, "{}", "test".on_bright_red()).unwrap();</v>
       </c>
       <c r="C30" t="s">
@@ -2196,39 +2196,39 @@
         <v>63</v>
       </c>
       <c r="F30" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="G30" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="H30" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="I30" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="J30" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="K30" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="L30" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>{ text: test_string, fg_colour: Color::White, bg_colour: Color::BrightRed, intensity: Intensity::Normal, italic: false, underline: false, blink: false, reversed: false, hidden: false, strikethrough: false }</v>
       </c>
       <c r="M30" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>assert_eq!(categorise_text(&amp;v)[0], CategorisedSlice { text: test_string, fg_colour: Color::White, bg_colour: Color::BrightRed, intensity: Intensity::Normal, italic: false, underline: false, blink: false, reversed: false, hidden: false, strikethrough: false }, "on_bright_red()");</v>
       </c>
       <c r="N30" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>write!(v, "{}", "test".on_bright_red()).unwrap(); print_bytes(&amp;v); assert_eq!(categorise_text(&amp;v)[0], CategorisedSlice { text: test_string, fg_colour: Color::White, bg_colour: Color::BrightRed, intensity: Intensity::Normal, italic: false, underline: false, blink: false, reversed: false, hidden: false, strikethrough: false }, "on_bright_red()"); v.clear();</v>
       </c>
     </row>
@@ -2237,7 +2237,7 @@
         <v>39</v>
       </c>
       <c r="B31" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>write!(v, "{}", "test".on_bright_green()).unwrap();</v>
       </c>
       <c r="C31" t="s">
@@ -2250,39 +2250,39 @@
         <v>63</v>
       </c>
       <c r="F31" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="G31" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="H31" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="I31" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="J31" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="K31" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="L31" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>{ text: test_string, fg_colour: Color::White, bg_colour: Color::BrightGreen, intensity: Intensity::Normal, italic: false, underline: false, blink: false, reversed: false, hidden: false, strikethrough: false }</v>
       </c>
       <c r="M31" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>assert_eq!(categorise_text(&amp;v)[0], CategorisedSlice { text: test_string, fg_colour: Color::White, bg_colour: Color::BrightGreen, intensity: Intensity::Normal, italic: false, underline: false, blink: false, reversed: false, hidden: false, strikethrough: false }, "on_bright_green()");</v>
       </c>
       <c r="N31" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>write!(v, "{}", "test".on_bright_green()).unwrap(); print_bytes(&amp;v); assert_eq!(categorise_text(&amp;v)[0], CategorisedSlice { text: test_string, fg_colour: Color::White, bg_colour: Color::BrightGreen, intensity: Intensity::Normal, italic: false, underline: false, blink: false, reversed: false, hidden: false, strikethrough: false }, "on_bright_green()"); v.clear();</v>
       </c>
     </row>
@@ -2291,7 +2291,7 @@
         <v>40</v>
       </c>
       <c r="B32" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>write!(v, "{}", "test".on_bright_yellow()).unwrap();</v>
       </c>
       <c r="C32" t="s">
@@ -2304,39 +2304,39 @@
         <v>63</v>
       </c>
       <c r="F32" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="G32" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="H32" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="I32" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="J32" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="K32" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="L32" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>{ text: test_string, fg_colour: Color::White, bg_colour: Color::BrightYellow, intensity: Intensity::Normal, italic: false, underline: false, blink: false, reversed: false, hidden: false, strikethrough: false }</v>
       </c>
       <c r="M32" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>assert_eq!(categorise_text(&amp;v)[0], CategorisedSlice { text: test_string, fg_colour: Color::White, bg_colour: Color::BrightYellow, intensity: Intensity::Normal, italic: false, underline: false, blink: false, reversed: false, hidden: false, strikethrough: false }, "on_bright_yellow()");</v>
       </c>
       <c r="N32" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>write!(v, "{}", "test".on_bright_yellow()).unwrap(); print_bytes(&amp;v); assert_eq!(categorise_text(&amp;v)[0], CategorisedSlice { text: test_string, fg_colour: Color::White, bg_colour: Color::BrightYellow, intensity: Intensity::Normal, italic: false, underline: false, blink: false, reversed: false, hidden: false, strikethrough: false }, "on_bright_yellow()"); v.clear();</v>
       </c>
     </row>
@@ -2345,7 +2345,7 @@
         <v>41</v>
       </c>
       <c r="B33" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>write!(v, "{}", "test".on_bright_blue()).unwrap();</v>
       </c>
       <c r="C33" t="s">
@@ -2358,39 +2358,39 @@
         <v>63</v>
       </c>
       <c r="F33" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="G33" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="H33" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="I33" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="J33" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="K33" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="L33" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>{ text: test_string, fg_colour: Color::White, bg_colour: Color::BrightBlue, intensity: Intensity::Normal, italic: false, underline: false, blink: false, reversed: false, hidden: false, strikethrough: false }</v>
       </c>
       <c r="M33" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>assert_eq!(categorise_text(&amp;v)[0], CategorisedSlice { text: test_string, fg_colour: Color::White, bg_colour: Color::BrightBlue, intensity: Intensity::Normal, italic: false, underline: false, blink: false, reversed: false, hidden: false, strikethrough: false }, "on_bright_blue()");</v>
       </c>
       <c r="N33" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>write!(v, "{}", "test".on_bright_blue()).unwrap(); print_bytes(&amp;v); assert_eq!(categorise_text(&amp;v)[0], CategorisedSlice { text: test_string, fg_colour: Color::White, bg_colour: Color::BrightBlue, intensity: Intensity::Normal, italic: false, underline: false, blink: false, reversed: false, hidden: false, strikethrough: false }, "on_bright_blue()"); v.clear();</v>
       </c>
     </row>
@@ -2399,7 +2399,7 @@
         <v>42</v>
       </c>
       <c r="B34" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>write!(v, "{}", "test".on_bright_magenta()).unwrap();</v>
       </c>
       <c r="C34" t="s">
@@ -2412,39 +2412,39 @@
         <v>63</v>
       </c>
       <c r="F34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="G34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="H34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="I34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="J34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="K34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="L34" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>{ text: test_string, fg_colour: Color::White, bg_colour: Color::BrightMagenta, intensity: Intensity::Normal, italic: false, underline: false, blink: false, reversed: false, hidden: false, strikethrough: false }</v>
       </c>
       <c r="M34" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>assert_eq!(categorise_text(&amp;v)[0], CategorisedSlice { text: test_string, fg_colour: Color::White, bg_colour: Color::BrightMagenta, intensity: Intensity::Normal, italic: false, underline: false, blink: false, reversed: false, hidden: false, strikethrough: false }, "on_bright_magenta()");</v>
       </c>
       <c r="N34" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>write!(v, "{}", "test".on_bright_magenta()).unwrap(); print_bytes(&amp;v); assert_eq!(categorise_text(&amp;v)[0], CategorisedSlice { text: test_string, fg_colour: Color::White, bg_colour: Color::BrightMagenta, intensity: Intensity::Normal, italic: false, underline: false, blink: false, reversed: false, hidden: false, strikethrough: false }, "on_bright_magenta()"); v.clear();</v>
       </c>
     </row>
@@ -2453,7 +2453,7 @@
         <v>43</v>
       </c>
       <c r="B35" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>write!(v, "{}", "test".on_bright_purple()).unwrap();</v>
       </c>
       <c r="C35" t="s">
@@ -2466,39 +2466,39 @@
         <v>63</v>
       </c>
       <c r="F35" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="G35" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="H35" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="I35" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="J35" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="K35" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="L35" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>{ text: test_string, fg_colour: Color::White, bg_colour: Color::BrightMagenta, intensity: Intensity::Normal, italic: false, underline: false, blink: false, reversed: false, hidden: false, strikethrough: false }</v>
       </c>
       <c r="M35" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>assert_eq!(categorise_text(&amp;v)[0], CategorisedSlice { text: test_string, fg_colour: Color::White, bg_colour: Color::BrightMagenta, intensity: Intensity::Normal, italic: false, underline: false, blink: false, reversed: false, hidden: false, strikethrough: false }, "on_bright_purple()");</v>
       </c>
       <c r="N35" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>write!(v, "{}", "test".on_bright_purple()).unwrap(); print_bytes(&amp;v); assert_eq!(categorise_text(&amp;v)[0], CategorisedSlice { text: test_string, fg_colour: Color::White, bg_colour: Color::BrightMagenta, intensity: Intensity::Normal, italic: false, underline: false, blink: false, reversed: false, hidden: false, strikethrough: false }, "on_bright_purple()"); v.clear();</v>
       </c>
     </row>
@@ -2507,7 +2507,7 @@
         <v>44</v>
       </c>
       <c r="B36" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>write!(v, "{}", "test".on_bright_cyan()).unwrap();</v>
       </c>
       <c r="C36" t="s">
@@ -2520,39 +2520,39 @@
         <v>63</v>
       </c>
       <c r="F36" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="G36" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="H36" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="I36" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="J36" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="K36" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="L36" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>{ text: test_string, fg_colour: Color::White, bg_colour: Color::BrightCyan, intensity: Intensity::Normal, italic: false, underline: false, blink: false, reversed: false, hidden: false, strikethrough: false }</v>
       </c>
       <c r="M36" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>assert_eq!(categorise_text(&amp;v)[0], CategorisedSlice { text: test_string, fg_colour: Color::White, bg_colour: Color::BrightCyan, intensity: Intensity::Normal, italic: false, underline: false, blink: false, reversed: false, hidden: false, strikethrough: false }, "on_bright_cyan()");</v>
       </c>
       <c r="N36" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>write!(v, "{}", "test".on_bright_cyan()).unwrap(); print_bytes(&amp;v); assert_eq!(categorise_text(&amp;v)[0], CategorisedSlice { text: test_string, fg_colour: Color::White, bg_colour: Color::BrightCyan, intensity: Intensity::Normal, italic: false, underline: false, blink: false, reversed: false, hidden: false, strikethrough: false }, "on_bright_cyan()"); v.clear();</v>
       </c>
     </row>
@@ -2561,7 +2561,7 @@
         <v>45</v>
       </c>
       <c r="B37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>write!(v, "{}", "test".on_bright_white()).unwrap();</v>
       </c>
       <c r="C37" t="s">
@@ -2574,39 +2574,39 @@
         <v>63</v>
       </c>
       <c r="F37" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="G37" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="H37" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="I37" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="J37" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="K37" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="L37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>{ text: test_string, fg_colour: Color::White, bg_colour: Color::BrightWhite, intensity: Intensity::Normal, italic: false, underline: false, blink: false, reversed: false, hidden: false, strikethrough: false }</v>
       </c>
       <c r="M37" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>assert_eq!(categorise_text(&amp;v)[0], CategorisedSlice { text: test_string, fg_colour: Color::White, bg_colour: Color::BrightWhite, intensity: Intensity::Normal, italic: false, underline: false, blink: false, reversed: false, hidden: false, strikethrough: false }, "on_bright_white()");</v>
       </c>
       <c r="N37" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>write!(v, "{}", "test".on_bright_white()).unwrap(); print_bytes(&amp;v); assert_eq!(categorise_text(&amp;v)[0], CategorisedSlice { text: test_string, fg_colour: Color::White, bg_colour: Color::BrightWhite, intensity: Intensity::Normal, italic: false, underline: false, blink: false, reversed: false, hidden: false, strikethrough: false }, "on_bright_white()"); v.clear();</v>
       </c>
     </row>
@@ -2615,7 +2615,7 @@
         <v>46</v>
       </c>
       <c r="B38" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>write!(v, "{}", "test".clear()).unwrap();</v>
       </c>
       <c r="C38" t="s">
@@ -2628,39 +2628,39 @@
         <v>63</v>
       </c>
       <c r="F38" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="G38" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="H38" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="I38" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="J38" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="K38" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="L38" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>{ text: test_string, fg_colour: Color::White, bg_colour: Color::Black, intensity: Intensity::Normal, italic: false, underline: false, blink: false, reversed: false, hidden: false, strikethrough: false }</v>
       </c>
       <c r="M38" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>assert_eq!(categorise_text(&amp;v)[0], CategorisedSlice { text: test_string, fg_colour: Color::White, bg_colour: Color::Black, intensity: Intensity::Normal, italic: false, underline: false, blink: false, reversed: false, hidden: false, strikethrough: false }, "clear()");</v>
       </c>
       <c r="N38" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>write!(v, "{}", "test".clear()).unwrap(); print_bytes(&amp;v); assert_eq!(categorise_text(&amp;v)[0], CategorisedSlice { text: test_string, fg_colour: Color::White, bg_colour: Color::Black, intensity: Intensity::Normal, italic: false, underline: false, blink: false, reversed: false, hidden: false, strikethrough: false }, "clear()"); v.clear();</v>
       </c>
     </row>
@@ -2669,7 +2669,7 @@
         <v>47</v>
       </c>
       <c r="B39" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>write!(v, "{}", "test".normal()).unwrap();</v>
       </c>
       <c r="C39" t="s">
@@ -2682,39 +2682,39 @@
         <v>63</v>
       </c>
       <c r="F39" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="G39" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="H39" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="I39" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="J39" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="K39" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="L39" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>{ text: test_string, fg_colour: Color::White, bg_colour: Color::Black, intensity: Intensity::Normal, italic: false, underline: false, blink: false, reversed: false, hidden: false, strikethrough: false }</v>
       </c>
       <c r="M39" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>assert_eq!(categorise_text(&amp;v)[0], CategorisedSlice { text: test_string, fg_colour: Color::White, bg_colour: Color::Black, intensity: Intensity::Normal, italic: false, underline: false, blink: false, reversed: false, hidden: false, strikethrough: false }, "normal()");</v>
       </c>
       <c r="N39" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>write!(v, "{}", "test".normal()).unwrap(); print_bytes(&amp;v); assert_eq!(categorise_text(&amp;v)[0], CategorisedSlice { text: test_string, fg_colour: Color::White, bg_colour: Color::Black, intensity: Intensity::Normal, italic: false, underline: false, blink: false, reversed: false, hidden: false, strikethrough: false }, "normal()"); v.clear();</v>
       </c>
     </row>
@@ -2723,7 +2723,7 @@
         <v>48</v>
       </c>
       <c r="B40" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>write!(v, "{}", "test".bold()).unwrap();</v>
       </c>
       <c r="C40" t="s">
@@ -2736,39 +2736,39 @@
         <v>64</v>
       </c>
       <c r="F40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="G40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="H40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="I40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="J40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="K40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="L40" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>{ text: test_string, fg_colour: Color::White, bg_colour: Color::Black, intensity: Intensity::Bold, italic: false, underline: false, blink: false, reversed: false, hidden: false, strikethrough: false }</v>
       </c>
       <c r="M40" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>assert_eq!(categorise_text(&amp;v)[0], CategorisedSlice { text: test_string, fg_colour: Color::White, bg_colour: Color::Black, intensity: Intensity::Bold, italic: false, underline: false, blink: false, reversed: false, hidden: false, strikethrough: false }, "bold()");</v>
       </c>
       <c r="N40" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>write!(v, "{}", "test".bold()).unwrap(); print_bytes(&amp;v); assert_eq!(categorise_text(&amp;v)[0], CategorisedSlice { text: test_string, fg_colour: Color::White, bg_colour: Color::Black, intensity: Intensity::Bold, italic: false, underline: false, blink: false, reversed: false, hidden: false, strikethrough: false }, "bold()"); v.clear();</v>
       </c>
     </row>
@@ -2777,7 +2777,7 @@
         <v>49</v>
       </c>
       <c r="B41" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>write!(v, "{}", "test".dimmed()).unwrap();</v>
       </c>
       <c r="C41" t="s">
@@ -2790,39 +2790,39 @@
         <v>73</v>
       </c>
       <c r="F41" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="G41" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="H41" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="I41" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="J41" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="K41" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="L41" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>{ text: test_string, fg_colour: Color::White, bg_colour: Color::Black, intensity: Intensity::Faint, italic: false, underline: false, blink: false, reversed: false, hidden: false, strikethrough: false }</v>
       </c>
       <c r="M41" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>assert_eq!(categorise_text(&amp;v)[0], CategorisedSlice { text: test_string, fg_colour: Color::White, bg_colour: Color::Black, intensity: Intensity::Faint, italic: false, underline: false, blink: false, reversed: false, hidden: false, strikethrough: false }, "dimmed()");</v>
       </c>
       <c r="N41" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>write!(v, "{}", "test".dimmed()).unwrap(); print_bytes(&amp;v); assert_eq!(categorise_text(&amp;v)[0], CategorisedSlice { text: test_string, fg_colour: Color::White, bg_colour: Color::Black, intensity: Intensity::Faint, italic: false, underline: false, blink: false, reversed: false, hidden: false, strikethrough: false }, "dimmed()"); v.clear();</v>
       </c>
     </row>
@@ -2831,7 +2831,7 @@
         <v>3</v>
       </c>
       <c r="B42" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>write!(v, "{}", "test".italic()).unwrap();</v>
       </c>
       <c r="C42" t="s">
@@ -2848,35 +2848,35 @@
         <v>true</v>
       </c>
       <c r="G42" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="H42" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="I42" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="J42" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="K42" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="L42" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>{ text: test_string, fg_colour: Color::White, bg_colour: Color::Black, intensity: Intensity::Normal, italic: true, underline: false, blink: false, reversed: false, hidden: false, strikethrough: false }</v>
       </c>
       <c r="M42" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>assert_eq!(categorise_text(&amp;v)[0], CategorisedSlice { text: test_string, fg_colour: Color::White, bg_colour: Color::Black, intensity: Intensity::Normal, italic: true, underline: false, blink: false, reversed: false, hidden: false, strikethrough: false }, "italic()");</v>
       </c>
       <c r="N42" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>write!(v, "{}", "test".italic()).unwrap(); print_bytes(&amp;v); assert_eq!(categorise_text(&amp;v)[0], CategorisedSlice { text: test_string, fg_colour: Color::White, bg_colour: Color::Black, intensity: Intensity::Normal, italic: true, underline: false, blink: false, reversed: false, hidden: false, strikethrough: false }, "italic()"); v.clear();</v>
       </c>
     </row>
@@ -2885,7 +2885,7 @@
         <v>4</v>
       </c>
       <c r="B43" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>write!(v, "{}", "test".underline()).unwrap();</v>
       </c>
       <c r="C43" t="s">
@@ -2898,7 +2898,7 @@
         <v>63</v>
       </c>
       <c r="F43" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="G43" t="str">
@@ -2906,31 +2906,31 @@
         <v>true</v>
       </c>
       <c r="H43" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>false</v>
       </c>
       <c r="I43" t="str">
-        <f t="shared" ref="I43:K48" si="5">"false"</f>
+        <f t="shared" ref="I43:K48" si="6">"false"</f>
         <v>false</v>
       </c>
       <c r="J43" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>false</v>
       </c>
       <c r="K43" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>false</v>
       </c>
       <c r="L43" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>{ text: test_string, fg_colour: Color::White, bg_colour: Color::Black, intensity: Intensity::Normal, italic: false, underline: true, blink: false, reversed: false, hidden: false, strikethrough: false }</v>
       </c>
       <c r="M43" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>assert_eq!(categorise_text(&amp;v)[0], CategorisedSlice { text: test_string, fg_colour: Color::White, bg_colour: Color::Black, intensity: Intensity::Normal, italic: false, underline: true, blink: false, reversed: false, hidden: false, strikethrough: false }, "underline()");</v>
       </c>
       <c r="N43" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>write!(v, "{}", "test".underline()).unwrap(); print_bytes(&amp;v); assert_eq!(categorise_text(&amp;v)[0], CategorisedSlice { text: test_string, fg_colour: Color::White, bg_colour: Color::Black, intensity: Intensity::Normal, italic: false, underline: true, blink: false, reversed: false, hidden: false, strikethrough: false }, "underline()"); v.clear();</v>
       </c>
     </row>
@@ -2939,7 +2939,7 @@
         <v>5</v>
       </c>
       <c r="B44" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>write!(v, "{}", "test".blink()).unwrap();</v>
       </c>
       <c r="C44" t="s">
@@ -2952,11 +2952,11 @@
         <v>63</v>
       </c>
       <c r="F44" t="str">
-        <f t="shared" ref="F44:H48" si="6">"false"</f>
+        <f t="shared" ref="F44:H48" si="7">"false"</f>
         <v>false</v>
       </c>
       <c r="G44" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>false</v>
       </c>
       <c r="H44" t="str">
@@ -2964,27 +2964,27 @@
         <v>true</v>
       </c>
       <c r="I44" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>false</v>
       </c>
       <c r="J44" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>false</v>
       </c>
       <c r="K44" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>false</v>
       </c>
       <c r="L44" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>{ text: test_string, fg_colour: Color::White, bg_colour: Color::Black, intensity: Intensity::Normal, italic: false, underline: false, blink: true, reversed: false, hidden: false, strikethrough: false }</v>
       </c>
       <c r="M44" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>assert_eq!(categorise_text(&amp;v)[0], CategorisedSlice { text: test_string, fg_colour: Color::White, bg_colour: Color::Black, intensity: Intensity::Normal, italic: false, underline: false, blink: true, reversed: false, hidden: false, strikethrough: false }, "blink()");</v>
       </c>
       <c r="N44" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>write!(v, "{}", "test".blink()).unwrap(); print_bytes(&amp;v); assert_eq!(categorise_text(&amp;v)[0], CategorisedSlice { text: test_string, fg_colour: Color::White, bg_colour: Color::Black, intensity: Intensity::Normal, italic: false, underline: false, blink: true, reversed: false, hidden: false, strikethrough: false }, "blink()"); v.clear();</v>
       </c>
     </row>
@@ -2993,7 +2993,7 @@
         <v>50</v>
       </c>
       <c r="B45" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>write!(v, "{}", "test".reverse()).unwrap();</v>
       </c>
       <c r="C45" t="s">
@@ -3006,15 +3006,15 @@
         <v>63</v>
       </c>
       <c r="F45" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>false</v>
       </c>
       <c r="G45" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>false</v>
       </c>
       <c r="H45" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>false</v>
       </c>
       <c r="I45" t="str">
@@ -3022,23 +3022,23 @@
         <v>true</v>
       </c>
       <c r="J45" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>false</v>
       </c>
       <c r="K45" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>false</v>
       </c>
       <c r="L45" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>{ text: test_string, fg_colour: Color::White, bg_colour: Color::Black, intensity: Intensity::Normal, italic: false, underline: false, blink: false, reversed: true, hidden: false, strikethrough: false }</v>
       </c>
       <c r="M45" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>assert_eq!(categorise_text(&amp;v)[0], CategorisedSlice { text: test_string, fg_colour: Color::White, bg_colour: Color::Black, intensity: Intensity::Normal, italic: false, underline: false, blink: false, reversed: true, hidden: false, strikethrough: false }, "reverse()");</v>
       </c>
       <c r="N45" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>write!(v, "{}", "test".reverse()).unwrap(); print_bytes(&amp;v); assert_eq!(categorise_text(&amp;v)[0], CategorisedSlice { text: test_string, fg_colour: Color::White, bg_colour: Color::Black, intensity: Intensity::Normal, italic: false, underline: false, blink: false, reversed: true, hidden: false, strikethrough: false }, "reverse()"); v.clear();</v>
       </c>
     </row>
@@ -3047,7 +3047,7 @@
         <v>51</v>
       </c>
       <c r="B46" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>write!(v, "{}", "test".reversed()).unwrap();</v>
       </c>
       <c r="C46" t="s">
@@ -3060,15 +3060,15 @@
         <v>63</v>
       </c>
       <c r="F46" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>false</v>
       </c>
       <c r="G46" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>false</v>
       </c>
       <c r="H46" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>false</v>
       </c>
       <c r="I46" t="str">
@@ -3076,23 +3076,23 @@
         <v>true</v>
       </c>
       <c r="J46" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>false</v>
       </c>
       <c r="K46" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>false</v>
       </c>
       <c r="L46" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>{ text: test_string, fg_colour: Color::White, bg_colour: Color::Black, intensity: Intensity::Normal, italic: false, underline: false, blink: false, reversed: true, hidden: false, strikethrough: false }</v>
       </c>
       <c r="M46" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>assert_eq!(categorise_text(&amp;v)[0], CategorisedSlice { text: test_string, fg_colour: Color::White, bg_colour: Color::Black, intensity: Intensity::Normal, italic: false, underline: false, blink: false, reversed: true, hidden: false, strikethrough: false }, "reversed()");</v>
       </c>
       <c r="N46" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>write!(v, "{}", "test".reversed()).unwrap(); print_bytes(&amp;v); assert_eq!(categorise_text(&amp;v)[0], CategorisedSlice { text: test_string, fg_colour: Color::White, bg_colour: Color::Black, intensity: Intensity::Normal, italic: false, underline: false, blink: false, reversed: true, hidden: false, strikethrough: false }, "reversed()"); v.clear();</v>
       </c>
     </row>
@@ -3101,7 +3101,7 @@
         <v>7</v>
       </c>
       <c r="B47" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>write!(v, "{}", "test".hidden()).unwrap();</v>
       </c>
       <c r="C47" t="s">
@@ -3114,19 +3114,19 @@
         <v>63</v>
       </c>
       <c r="F47" t="str">
+        <f t="shared" si="7"/>
+        <v>false</v>
+      </c>
+      <c r="G47" t="str">
+        <f t="shared" si="7"/>
+        <v>false</v>
+      </c>
+      <c r="H47" t="str">
+        <f t="shared" si="7"/>
+        <v>false</v>
+      </c>
+      <c r="I47" t="str">
         <f t="shared" si="6"/>
-        <v>false</v>
-      </c>
-      <c r="G47" t="str">
-        <f t="shared" si="6"/>
-        <v>false</v>
-      </c>
-      <c r="H47" t="str">
-        <f t="shared" si="6"/>
-        <v>false</v>
-      </c>
-      <c r="I47" t="str">
-        <f t="shared" si="5"/>
         <v>false</v>
       </c>
       <c r="J47" t="str">
@@ -3134,19 +3134,19 @@
         <v>true</v>
       </c>
       <c r="K47" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>false</v>
       </c>
       <c r="L47" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>{ text: test_string, fg_colour: Color::White, bg_colour: Color::Black, intensity: Intensity::Normal, italic: false, underline: false, blink: false, reversed: false, hidden: true, strikethrough: false }</v>
       </c>
       <c r="M47" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>assert_eq!(categorise_text(&amp;v)[0], CategorisedSlice { text: test_string, fg_colour: Color::White, bg_colour: Color::Black, intensity: Intensity::Normal, italic: false, underline: false, blink: false, reversed: false, hidden: true, strikethrough: false }, "hidden()");</v>
       </c>
       <c r="N47" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>write!(v, "{}", "test".hidden()).unwrap(); print_bytes(&amp;v); assert_eq!(categorise_text(&amp;v)[0], CategorisedSlice { text: test_string, fg_colour: Color::White, bg_colour: Color::Black, intensity: Intensity::Normal, italic: false, underline: false, blink: false, reversed: false, hidden: true, strikethrough: false }, "hidden()"); v.clear();</v>
       </c>
     </row>
@@ -3155,7 +3155,7 @@
         <v>8</v>
       </c>
       <c r="B48" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>write!(v, "{}", "test".strikethrough()).unwrap();</v>
       </c>
       <c r="C48" t="s">
@@ -3168,23 +3168,23 @@
         <v>63</v>
       </c>
       <c r="F48" t="str">
+        <f t="shared" si="7"/>
+        <v>false</v>
+      </c>
+      <c r="G48" t="str">
+        <f t="shared" si="7"/>
+        <v>false</v>
+      </c>
+      <c r="H48" t="str">
+        <f t="shared" si="7"/>
+        <v>false</v>
+      </c>
+      <c r="I48" t="str">
         <f t="shared" si="6"/>
         <v>false</v>
       </c>
-      <c r="G48" t="str">
+      <c r="J48" t="str">
         <f t="shared" si="6"/>
-        <v>false</v>
-      </c>
-      <c r="H48" t="str">
-        <f t="shared" si="6"/>
-        <v>false</v>
-      </c>
-      <c r="I48" t="str">
-        <f t="shared" si="5"/>
-        <v>false</v>
-      </c>
-      <c r="J48" t="str">
-        <f t="shared" si="5"/>
         <v>false</v>
       </c>
       <c r="K48" t="str">
@@ -3192,15 +3192,15 @@
         <v>true</v>
       </c>
       <c r="L48" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>{ text: test_string, fg_colour: Color::White, bg_colour: Color::Black, intensity: Intensity::Normal, italic: false, underline: false, blink: false, reversed: false, hidden: false, strikethrough: true }</v>
       </c>
       <c r="M48" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>assert_eq!(categorise_text(&amp;v)[0], CategorisedSlice { text: test_string, fg_colour: Color::White, bg_colour: Color::Black, intensity: Intensity::Normal, italic: false, underline: false, blink: false, reversed: false, hidden: false, strikethrough: true }, "strikethrough()");</v>
       </c>
       <c r="N48" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>write!(v, "{}", "test".strikethrough()).unwrap(); print_bytes(&amp;v); assert_eq!(categorise_text(&amp;v)[0], CategorisedSlice { text: test_string, fg_colour: Color::White, bg_colour: Color::Black, intensity: Intensity::Normal, italic: false, underline: false, blink: false, reversed: false, hidden: false, strikethrough: true }, "strikethrough()"); v.clear();</v>
       </c>
     </row>
